--- a/Bug-reports/Bug-report.xlsx
+++ b/Bug-reports/Bug-report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Desktop\Джуны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Documents\GitHub\Snegovvik\Bug-reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
   <si>
     <t>№</t>
   </si>
@@ -241,6 +241,124 @@
   </si>
   <si>
     <t>Цвет и фон изображения совпадает с остальными изображениями в этом блоке.</t>
+  </si>
+  <si>
+    <t>На страницах "Разработка" и "Продвижение" форма "Свяжитесь с нами" при клике/тапе на название поля "Имя" и "Номер телефона" переносит на другую форму</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт https://axiomica.io/ru/development/, https://axiomica.io/ru/promotion/
+2. Прокрутить страницу до формы "Свяжитесь с нами"
+3. Кликнуть/ тапнуть по полю "Имя/ Номер телефона"</t>
+  </si>
+  <si>
+    <t>Пользователь переходит на форму заказа на текущей странице</t>
+  </si>
+  <si>
+    <t>Названия полей либо некликабельны совсем, либо пользователь остается на той же форме "Свяжитесь с нами" и каретка становится в соответствующие поля этой формы.</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/client/disk/Axiomica?idApp=client&amp;dialog=slider&amp;idDialog=%2Fdisk%2FAxiomica%2F2023-10-26%2012-06-17.mp4</t>
+  </si>
+  <si>
+    <t>macOS (Safari, Chrome, Opera, Firefox)
+Windows (Edge, Chrome, Opera, Firefox)
+iOS (Safari, Chrome, Opera, Firefox)
+Android (Edge, Chrome, Opera, Firefox)</t>
+  </si>
+  <si>
+    <t>На странице "Продвижение" кнопка "Записаться на онлайн встречу" не имеет свойства target_blank, страница Calendly открывается в той же вкладке</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт https://axiomica.io/ru/promotion/
+2. Кликнуть по кнопке "Записаться на онлайн встречу"</t>
+  </si>
+  <si>
+    <t>Старница Calendly открывается в новой вкладке, как происходит при клике на подобные кнопки на других страницах сайта.</t>
+  </si>
+  <si>
+    <t>Страница Calendly открывается в той же вкладке</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/client/disk/Axiomica?idApp=client&amp;dialog=slider&amp;idDialog=%2Fdisk%2FAxiomica%2F2023-10-26%2013-31-57.mp4</t>
+  </si>
+  <si>
+    <t>В любой форме на сайте заполненные поля не очищаются ни после отправки формы, ни после перехода на другую страницу и возврате</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт https://axiomica.io/ru/
+2. Спуститься до формы заявки
+3. Ввести любые данные в поля ввода
+4. Перейти на любую страницу на сайте
+5. Нажать кнопку "Назад" в браузере
+6. Вернуться к форме заявке</t>
+  </si>
+  <si>
+    <t>Данные остаются в полях ввода после возвращения на страницу</t>
+  </si>
+  <si>
+    <t>Поля очищаются после возвращения на страницу</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/client/disk/Axiomica?idApp=client&amp;dialog=slider&amp;idDialog=%2Fdisk%2FAxiomica%2F2023-10-26%2013-09-31.mp4</t>
+  </si>
+  <si>
+    <t>На русскоязычной версии сайта бургер-меню в мобильной версии разворачивается горизонтально при вертикальном положении устройства</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт https://axiomica.io/ru/ на мобильном устройстве</t>
+  </si>
+  <si>
+    <t>Не отображается первый пункт меню "Главная"</t>
+  </si>
+  <si>
+    <t>Все кнопки бургер-меню видны целиком, отображение меню на мобильном устройстве вертикальное.</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/client/disk/Axiomica?idApp=client&amp;dialog=slider&amp;idDialog=%2Fdisk%2FAxiomica%2Fvideo_2023-10-26_19-53-58.mp4</t>
+  </si>
+  <si>
+    <t>В русскоязычной версии сайта нет актив-эффекта на кнопке "Главная" в хедере, когда пользователь на ней находится</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт https://axiomica.io/ru/
+2. Перейти по кнопке меню "Главная" в хедере</t>
+  </si>
+  <si>
+    <t>Нет актив-эффекта на кнопке "Главная" в хедере, когда пользователь на ней находится</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/client/disk/Axiomica?idApp=client&amp;dialog=slider&amp;idDialog=%2Fdisk%2FAxiomica%2F2023-10-26%2016-59-06.mkv</t>
+  </si>
+  <si>
+    <t>Кнопка "Главная" в меню подсвечена актив-эффектом, когда пользователь находится на этой странице сайта.</t>
+  </si>
+  <si>
+    <t>Ошибки граматики и локализации - общий баг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. На любой ошибке в футере в терминологии
+2. На главной странице https://axiomica.io/ru/ - ошибка локализации
+3. На странице "Портфолио" https://axiomica.io/ru/portfolio/ - ошибки локализации
+4. На странице "Контакты" https://axiomica.io/ru/contacts/ - ошибки локализации
+5. На главной странице https://axiomica.io/ru/ - ошибки граматики
+6. На странице "Разработка" https://axiomica.io/ru/development/ - ошибки граматики
+7. На странице "Продвижение" https://axiomica.io/ru/promotion/ - ошибки граматики
+8. На странице "Портфолио" https://axiomica.io/ru/portfolio/ - ошибки граматики: неединообразное написание местоимения "Вы"\ "вы" на сайте
+9. На странице "Cardex" - https://axiomica.io/ru/portfolio/cardex - ошибки граматики
+10. На странице "24BITBANK" -https://axiomica.io/ru/portfolio/bitbank - ошибки граматики
+11. На странице "NFT" https://axiomica.io/ru/portfolio/nft - ошибки граматики
+12. На странице "Token" https://axiomica.io/ru/portfolio/token/ - ошибки граматики
+13. На странице "Карьера" https://axiomica.io/ru/vacancies/ - ошибки граматики
+ </t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/client/disk/Axiomica/%D0%A1%D0%BA%D1%80%D0%B8%D0%BD%D1%8B%20%D0%BE%D0%B1%D1%89%D0%B8%D1%85%20%D0%B1%D0%B0%D0%B3%D0%BE%D0%B2</t>
+  </si>
+  <si>
+    <t>Отсутствуют ошибки граматики и локализации. По тексту применены единообразные синтаксические конструкции.</t>
+  </si>
+  <si>
+    <t>Множество ошибок граматики, локализация выполнена не везде. Отсутствует единообразие словосочетаний по тексту.</t>
   </si>
 </sst>
 </file>
@@ -337,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,15 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -377,15 +486,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -827,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,148 +980,148 @@
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="17"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:12" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="247.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1009,25 +1130,25 @@
       <c r="G6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1036,25 +1157,25 @@
       <c r="G7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="322.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1063,444 +1184,540 @@
       <c r="G8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:12" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:12" ht="274.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -1548,10 +1765,16 @@
     <hyperlink ref="H3" r:id="rId2"/>
     <hyperlink ref="H5" r:id="rId3"/>
     <hyperlink ref="H9" r:id="rId4"/>
+    <hyperlink ref="H12" r:id="rId5"/>
+    <hyperlink ref="H13" r:id="rId6"/>
+    <hyperlink ref="H14" r:id="rId7"/>
+    <hyperlink ref="H15" r:id="rId8"/>
+    <hyperlink ref="H16" r:id="rId9"/>
+    <hyperlink ref="H17" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
